--- a/results_cnn_subnetwork_evaluation_/pseudoinverse/summary_pseudoinverse.xlsx
+++ b/results_cnn_subnetwork_evaluation_/pseudoinverse/summary_pseudoinverse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pseudoinverse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation_\pseudoinverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72ED620-9F42-450F-9DC9-C57183DE4ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB264E-4DF7-43BD-8026-E28CAABE59EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,51 +83,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>recovered_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>𝜆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_0.25</t>
-    </r>
+    <t>recovered_𝜆_0.0125</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>recovered_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>𝜆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_0.0125</t>
-    </r>
+    <t>recovered_𝜆_0.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,12 +120,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria Math"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -284,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -325,28 +279,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,7 +920,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$12</c15:sqref>
@@ -1029,7 +961,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$32:$G$36</c15:sqref>
@@ -1059,7 +991,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$12:$B$16</c15:sqref>
@@ -1088,7 +1020,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-A043-431B-B6E4-5EEA32AB2884}"/>
                   </c:ext>
@@ -2201,22 +2133,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="17">
+      <c r="B3" s="6">
         <v>84.464709902334803</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="6">
         <v>6.9849454749560786</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="6">
         <v>0.44695112263267622</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="6">
         <v>0.844647099023348</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="6">
         <v>0.83922304962233418</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="7">
         <v>0.3</v>
       </c>
       <c r="H3" s="8">
@@ -2225,22 +2157,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="17">
+      <c r="B4" s="6">
         <v>75.654829770730416</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="6">
         <v>8.7926990281422537</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="6">
         <v>0.68619710638475417</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="6">
         <v>0.75654829770730414</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="6">
         <v>0.74822801158375163</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="7">
         <v>0.2</v>
       </c>
       <c r="H4" s="8">
@@ -2249,22 +2181,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="17">
+      <c r="B5" s="6">
         <v>60.263779675141357</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="6">
         <v>10.551971596502243</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="6">
         <v>0.96260604902274072</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="6">
         <v>0.60263779675141371</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="6">
         <v>0.58369592063873199</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="7">
         <v>0.1</v>
       </c>
       <c r="H5" s="8">
@@ -2297,21 +2229,21 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="21">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6">
         <v>88.475719224791462</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="6">
         <v>6.2928749657543142</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="6">
         <v>0.33877825541110579</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="6">
         <v>0.88475719224791438</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="6">
         <v>0.87940506426071596</v>
       </c>
       <c r="G7" s="4">
@@ -2323,22 +2255,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="24">
+      <c r="B8" s="6">
         <v>83.857703498011816</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="6">
         <v>6.8081665197015733</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="6">
         <v>0.47337723234759221</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="6">
         <v>0.83857703498011793</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="6">
         <v>0.8321501844383401</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="7">
         <v>0.3</v>
       </c>
       <c r="H8" s="8">
@@ -2347,22 +2279,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="27">
+      <c r="B9" s="6">
         <v>74.974218346756189</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="6">
         <v>8.5143124458766817</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="6">
         <v>0.72222316132124342</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="6">
         <v>0.74974218346756183</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="6">
         <v>0.73933850772003551</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="7">
         <v>0.2</v>
       </c>
       <c r="H9" s="8">
@@ -2371,22 +2303,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="30">
+      <c r="B10" s="6">
         <v>61.250489479436091</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="6">
         <v>10.330180789010237</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="6">
         <v>0.93120300830341851</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="6">
         <v>0.61250489479436099</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="6">
         <v>0.59559756474287084</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="7">
         <v>0.1</v>
       </c>
       <c r="H10" s="8">
@@ -2395,19 +2327,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="33">
+      <c r="B11" s="6">
         <v>50.662208727295798</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="6">
         <v>10.398571184823924</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="6">
         <v>1.348160581812069</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="6">
         <v>0.50662208727295799</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="6">
         <v>0.46667862581515351</v>
       </c>
       <c r="G11" s="10">
@@ -2445,22 +2377,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="17">
+      <c r="B13" s="6">
         <v>82.944985106560893</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="6">
         <v>6.8899969528840845</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="6">
         <v>0.51188207167935529</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="6">
         <v>0.82944985106560909</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="6">
         <v>0.82062575737560217</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="7">
         <v>0.3</v>
       </c>
       <c r="H13" s="8">
@@ -2469,22 +2401,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="17">
+      <c r="B14" s="6">
         <v>76.342257862668944</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="6">
         <v>8.3717864825382975</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="6">
         <v>0.67670999787971098</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="6">
         <v>0.76342257862668927</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="6">
         <v>0.75596901839376218</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="7">
         <v>0.2</v>
       </c>
       <c r="H14" s="8">
@@ -2493,22 +2425,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="17">
+      <c r="B15" s="6">
         <v>59.990611222127058</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="6">
         <v>11.399832068614115</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="6">
         <v>0.97217982150515625</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="6">
         <v>0.59990611222127066</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="6">
         <v>0.58315667053699982</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="7">
         <v>0.1</v>
       </c>
       <c r="H15" s="8">
@@ -2567,22 +2499,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="17">
+      <c r="B18" s="6">
         <v>84.28529658561061</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="6">
         <v>6.6332611502569065</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="6">
         <v>0.52260765701389067</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="6">
         <v>0.84285296585610603</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="6">
         <v>0.83229986009401513</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="7">
         <v>0.3</v>
       </c>
       <c r="H18" s="8">
@@ -2591,22 +2523,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="17">
+      <c r="B19" s="6">
         <v>78.497616761390674</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="6">
         <v>8.4615943701081004</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="6">
         <v>0.70283904482364756</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="6">
         <v>0.78497616761390676</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="6">
         <v>0.77538200361930198</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="7">
         <v>0.2</v>
       </c>
       <c r="H19" s="8">
@@ -2615,22 +2547,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="17">
+      <c r="B20" s="6">
         <v>67.042777186653865</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="6">
         <v>10.215002562174989</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="6">
         <v>0.86921801746421912</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="6">
         <v>0.67042777186653857</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="6">
         <v>0.65983358623445976</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="7">
         <v>0.1</v>
       </c>
       <c r="H20" s="8">
@@ -2689,22 +2621,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="17">
+      <c r="B23" s="6">
         <v>88.380781840673365</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="6">
         <v>6.156850302455811</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="6">
         <v>0.37001451915407008</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="6">
         <v>0.88380781840673361</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="6">
         <v>0.87784091180363599</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="7">
         <v>0.3</v>
       </c>
       <c r="H23" s="8">
@@ -2713,22 +2645,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="17">
+      <c r="B24" s="6">
         <v>83.67194064539197</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="6">
         <v>7.299715270371042</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="6">
         <v>0.48286336623876391</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="6">
         <v>0.83671940645391985</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="6">
         <v>0.83103690941985031</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="7">
         <v>0.2</v>
       </c>
       <c r="H24" s="8">
@@ -2737,22 +2669,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="17">
+      <c r="B25" s="6">
         <v>64.340302828455833</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="6">
         <v>9.3035247118877464</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="6">
         <v>0.88285480061545973</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="6">
         <v>0.64340302828455853</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="6">
         <v>0.62975123403159838</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="7">
         <v>0.1</v>
       </c>
       <c r="H25" s="8">
@@ -2785,21 +2717,21 @@
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="18">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3">
         <v>83.093238984189597</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="3">
         <v>8.2529336995536493</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="3">
         <v>0.5019691551548916</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="3">
         <v>0.83093238984189599</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="3">
         <v>0.81842253627879991</v>
       </c>
       <c r="G27" s="4">
@@ -2811,22 +2743,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="19">
+      <c r="B28" s="6">
         <v>81.042627243026899</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="6">
         <v>8.612925548604748</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="6">
         <v>0.54300261379047143</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="6">
         <v>0.81042627243026888</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="6">
         <v>0.79911116479002842</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="7">
         <v>0.3</v>
       </c>
       <c r="H28" s="8">
@@ -2835,22 +2767,22 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="B29" s="19">
+      <c r="B29" s="6">
         <v>77.575705672194388</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="6">
         <v>7.3830938862219933</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="6">
         <v>0.65154470660088326</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="6">
         <v>0.77575705672194395</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="6">
         <v>0.76455863789219758</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="7">
         <v>0.2</v>
       </c>
       <c r="H29" s="8">
@@ -2859,22 +2791,22 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="B30" s="19">
+      <c r="B30" s="6">
         <v>70.030311680896872</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="6">
         <v>8.2175232510543665</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="6">
         <v>0.81102522872711746</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="6">
         <v>0.70030311680896895</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="6">
         <v>0.68681993420090703</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="7">
         <v>0.1</v>
       </c>
       <c r="H30" s="8">
@@ -2883,19 +2815,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="20">
+      <c r="B31" s="9">
         <v>64.806742849563278</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="9">
         <v>8.8994299049570262</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="9">
         <v>1.134637823591985</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="9">
         <v>0.64806742849563292</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="9">
         <v>0.61710625568666055</v>
       </c>
       <c r="G31" s="10">
@@ -2909,19 +2841,19 @@
       <c r="A32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="3">
         <v>75.042177412146017</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="3">
         <v>9.7903682951075091</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="3">
         <v>0.62578033046156645</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="3">
         <v>0.75042177412146005</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="3">
         <v>0.73869096347285634</v>
       </c>
       <c r="G32" s="4">
@@ -2933,22 +2865,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="19">
+      <c r="B33" s="6">
         <v>71.463963067731257</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="6">
         <v>10.884461107592264</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="6">
         <v>0.7181530962452396</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="6">
         <v>0.71463963067731262</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="6">
         <v>0.70172555021914884</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="7">
         <v>0.3</v>
       </c>
       <c r="H33" s="8">
@@ -2957,22 +2889,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="19">
+      <c r="B34" s="6">
         <v>69.399170119695384</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="6">
         <v>10.739287364352021</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="6">
         <v>0.7594613595079216</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="6">
         <v>0.69399170119695375</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="6">
         <v>0.67981563572724901</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="7">
         <v>0.2</v>
       </c>
       <c r="H34" s="8">
@@ -2981,22 +2913,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
-      <c r="B35" s="19">
+      <c r="B35" s="6">
         <v>66.100381491189367</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="6">
         <v>10.803227818171701</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="6">
         <v>0.77476880570912443</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="6">
         <v>0.66100381491189375</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="6">
         <v>0.64925927768471681</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="7">
         <v>0.1</v>
       </c>
       <c r="H35" s="8">
@@ -3005,19 +2937,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="20">
+      <c r="B36" s="9">
         <v>57.328771586836098</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="9">
         <v>7.4511046504799383</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="9">
         <v>1.1526369932286129</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="9">
         <v>0.57328771586836103</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="9">
         <v>0.53618628257250334</v>
       </c>
       <c r="G36" s="10">
